--- a/resources/seq_patterns/pattern_selection_measures.xlsx
+++ b/resources/seq_patterns/pattern_selection_measures.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2278947</v>
+        <v>1811054</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 48 60</t>
+          <t xml:space="preserve"> 5 47 59</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -654,7 +654,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2324340</v>
+        <v>1853119</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48 69 70</t>
+          <t xml:space="preserve"> 47 68 69</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -751,7 +751,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2331616</v>
+        <v>1860042</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60 77 210</t>
+          <t xml:space="preserve"> 59 76 208</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -848,7 +848,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2233593</v>
+        <v>1773561</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44 69 153</t>
+          <t xml:space="preserve"> 44 68 151</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -945,7 +945,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2230461</v>
+        <v>1770664</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39 44 69</t>
+          <t xml:space="preserve"> 39 44 68</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -1042,7 +1042,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2227662</v>
+        <v>1767968</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39 44 49 69</t>
+          <t xml:space="preserve"> 39 44 48 68</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1139,7 +1139,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2212511</v>
+        <v>1755103</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44 69 153</t>
+          <t xml:space="preserve"> 44 68 151</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1236,7 +1236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>589138</v>
+        <v>440952</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0 110 221</t>
+          <t xml:space="preserve"> 0 109 219</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1333,7 +1333,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>374986</v>
+        <v>245867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 101 190 212</t>
+          <t xml:space="preserve"> 100 188 210</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1430,7 +1430,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>367419</v>
+        <v>239703</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44 113 135 212</t>
+          <t xml:space="preserve"> 44 112 133 210</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1527,7 +1527,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>357780</v>
+        <v>231384</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49 87 101 150 190</t>
+          <t xml:space="preserve"> 48 86 100 148 188</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1624,7 +1624,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>323593</v>
+        <v>203070</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 20 38 44 113 116 212 221</t>
+          <t xml:space="preserve"> 3 20 38 44 112 115 210 219</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1721,7 +1721,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>298191</v>
+        <v>180395</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0 87 101 110 150</t>
+          <t xml:space="preserve"> 0 86 100 109 148</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1818,7 +1818,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1172947</v>
+        <v>935925</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58 138 214</t>
+          <t xml:space="preserve"> 57 136 212</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1915,7 +1915,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1010275</v>
+        <v>795513</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 53 233</t>
+          <t xml:space="preserve"> 23 52 231</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -2012,7 +2012,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2116904</v>
+        <v>1693062</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 23 77</t>
+          <t xml:space="preserve"> 13 23 76</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -2109,7 +2109,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1988405</v>
+        <v>1584378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 39 113</t>
+          <t xml:space="preserve"> 27 39 112</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1991354</v>
+        <v>1586699</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39 158 165 173</t>
+          <t xml:space="preserve"> 39 156 163 171</t>
         </is>
       </c>
       <c r="E19" t="n">

--- a/resources/seq_patterns/pattern_selection_measures.xlsx
+++ b/resources/seq_patterns/pattern_selection_measures.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
